--- a/калькулятор 5 - блокноты, деколь/калькулятор 3 старый с sql.xlsx
+++ b/калькулятор 5 - блокноты, деколь/калькулятор 3 старый с sql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7065" windowHeight="8760" tabRatio="915" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7065" windowHeight="8760" tabRatio="915" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="тампопечать" sheetId="1" r:id="rId1"/>
@@ -6467,7 +6467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -8677,8 +8677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8686,6 +8686,7 @@
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="139" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43.5" customHeight="1">
@@ -9364,8 +9365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/калькулятор 5 - блокноты, деколь/калькулятор 3 старый с sql.xlsx
+++ b/калькулятор 5 - блокноты, деколь/калькулятор 3 старый с sql.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KvotaSite\калькулятор 5 - блокноты, деколь\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7065" windowHeight="8760" tabRatio="915" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7065" windowHeight="8760" tabRatio="915"/>
   </bookViews>
   <sheets>
     <sheet name="тампопечать" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <sheet name="dtg" sheetId="8" r:id="rId9"/>
     <sheet name="Баннеры" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -512,7 +517,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
@@ -2298,6 +2303,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2307,27 +2315,57 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2343,41 +2381,8 @@
     <xf numFmtId="0" fontId="35" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2389,6 +2394,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2411,13 +2419,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>131109</xdr:rowOff>
+          <xdr:rowOff>112059</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>159684</xdr:rowOff>
+          <xdr:rowOff>140634</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2430,7 +2438,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2438,6 +2446,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2452,13 +2466,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>131109</xdr:rowOff>
+          <xdr:rowOff>112059</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>159684</xdr:rowOff>
+          <xdr:rowOff>140634</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2471,7 +2485,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2479,6 +2493,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2744,7 +2764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2754,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2854,11 +2874,11 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (45,300,10.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (45,300,10,5);</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (45,500,7.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (45,500,7,5);</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" si="0"/>
@@ -2866,7 +2886,7 @@
       </c>
       <c r="R3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (45,2000,4.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (45,2000,4,5);</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75">
@@ -2911,11 +2931,11 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (46,200,16.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (46,200,16,5);</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (46,300,13.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (46,300,13,5);</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
@@ -2927,7 +2947,7 @@
       </c>
       <c r="R4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (46,2000,7.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (46,2000,7,5);</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75">
@@ -2964,7 +2984,7 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into price (catId,tiraz,cena) values (47,50,46.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (47,50,46,5);</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
@@ -3025,15 +3045,15 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="2"/>
-        <v>insert into price (catId,tiraz,cena) values (48,50,55.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (48,50,55,5);</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (48,100,28.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (48,100,28,5);</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (48,200,25.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (48,200,25,5);</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="0"/>
@@ -3041,7 +3061,7 @@
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (48,500,22.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (48,500,22,5);</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="0"/>
@@ -3049,7 +3069,7 @@
       </c>
       <c r="R6" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B6&amp;","&amp;I$2&amp;","&amp;I6&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (48,2000,13.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (48,2000,13,5);</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3145,7 +3165,7 @@
       </c>
       <c r="N10" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (96,200,19.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (96,200,19,5);</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="3"/>
@@ -3153,11 +3173,11 @@
       </c>
       <c r="P10" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (96,500,10.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (96,500,10,5);</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (96,1000,7.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (96,1000,7,5);</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="3"/>
@@ -3206,7 +3226,7 @@
       </c>
       <c r="N11" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (97,200,31.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (97,200,31,5);</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="3"/>
@@ -3218,7 +3238,7 @@
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (97,1000,13.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (97,1000,13,5);</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="3"/>
@@ -3267,11 +3287,11 @@
       </c>
       <c r="N12" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (98,200,43.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (98,200,43,5);</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (98,300,31.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (98,300,31,5);</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="3"/>
@@ -3279,7 +3299,7 @@
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (98,1000,19.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (98,1000,19,5);</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="3"/>
@@ -3328,19 +3348,19 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (99,200,55.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (99,200,55,5);</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (99,300,40.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (99,300,40,5);</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (99,500,31.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (99,500,31,5);</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (99,1000,25.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (99,1000,25,5);</v>
       </c>
       <c r="R13" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B13&amp;","&amp;I$9&amp;","&amp;I13&amp;");"</f>
@@ -3550,96 +3570,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="55.5" customHeight="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="L1" s="206"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="L1" s="222"/>
     </row>
     <row r="2" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="L2" s="207"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="L2" s="223"/>
     </row>
     <row r="3" spans="1:14" ht="2.25" customHeight="1">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
+      <c r="A3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
-      <c r="L3" s="207"/>
+      <c r="L3" s="223"/>
     </row>
     <row r="4" spans="1:14" ht="15.75">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="L4" s="207"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="L4" s="223"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="215" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="123"/>
-      <c r="C5" s="211" t="s">
+      <c r="C5" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="212" t="s">
+      <c r="E5" s="216" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="213"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="212" t="s">
+      <c r="F5" s="224"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="216" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="213"/>
-      <c r="J5" s="214"/>
-      <c r="L5" s="207"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="225"/>
+      <c r="L5" s="223"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="210"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="123"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="217"/>
-      <c r="H6" s="215"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="217"/>
-      <c r="L6" s="207"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="228"/>
+      <c r="L6" s="223"/>
     </row>
     <row r="7" spans="1:14" s="153" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="123"/>
@@ -3656,7 +3676,7 @@
       </c>
       <c r="I7" s="126"/>
       <c r="J7" s="127"/>
-      <c r="L7" s="207"/>
+      <c r="L7" s="223"/>
       <c r="M7" s="153" t="s">
         <v>150</v>
       </c>
@@ -3674,17 +3694,17 @@
       <c r="D8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="203">
+      <c r="E8" s="204">
         <v>165</v>
       </c>
-      <c r="F8" s="204"/>
-      <c r="G8" s="205"/>
-      <c r="H8" s="203">
+      <c r="F8" s="205"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="204">
         <v>192</v>
       </c>
-      <c r="I8" s="204"/>
-      <c r="J8" s="205"/>
-      <c r="L8" s="207"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="206"/>
+      <c r="L8" s="223"/>
       <c r="M8" s="153" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B8&amp;","&amp;$E$7&amp;","&amp;E8&amp;");"</f>
         <v>insert into price (catId,tiraz,cena) values (130,143,165);</v>
@@ -3707,17 +3727,17 @@
       <c r="D9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="203">
+      <c r="E9" s="204">
         <v>192</v>
       </c>
-      <c r="F9" s="204"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="203">
+      <c r="F9" s="205"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="204">
         <v>220</v>
       </c>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
-      <c r="L9" s="207"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="206"/>
+      <c r="L9" s="223"/>
       <c r="M9" s="153" t="str">
         <f t="shared" ref="M9:M12" si="0">"insert into price (catId,tiraz,cena) values ("&amp;$B9&amp;","&amp;$E$7&amp;","&amp;E9&amp;");"</f>
         <v>insert into price (catId,tiraz,cena) values (131,143,192);</v>
@@ -3740,17 +3760,17 @@
       <c r="D10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="203">
+      <c r="E10" s="204">
         <v>302</v>
       </c>
-      <c r="F10" s="204"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="203">
+      <c r="F10" s="205"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="204">
         <v>329</v>
       </c>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
-      <c r="L10" s="207"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="206"/>
+      <c r="L10" s="223"/>
       <c r="M10" s="153" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (catId,tiraz,cena) values (132,143,302);</v>
@@ -3773,17 +3793,17 @@
       <c r="D11" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="203">
+      <c r="E11" s="204">
         <v>439</v>
       </c>
-      <c r="F11" s="204"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="203">
+      <c r="F11" s="205"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="204">
         <v>466</v>
       </c>
-      <c r="I11" s="204"/>
-      <c r="J11" s="205"/>
-      <c r="L11" s="207"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="206"/>
+      <c r="L11" s="223"/>
       <c r="M11" s="153" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (catId,tiraz,cena) values (133,143,439);</v>
@@ -3806,17 +3826,17 @@
       <c r="D12" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="203">
+      <c r="E12" s="204">
         <v>295</v>
       </c>
-      <c r="F12" s="204"/>
-      <c r="G12" s="205"/>
-      <c r="H12" s="203">
+      <c r="F12" s="205"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="204">
         <v>322</v>
       </c>
-      <c r="I12" s="204"/>
-      <c r="J12" s="205"/>
-      <c r="L12" s="207"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="206"/>
+      <c r="L12" s="223"/>
       <c r="M12" s="153" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (catId,tiraz,cena) values (134,143,295);</v>
@@ -3827,126 +3847,126 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="218" t="s">
+      <c r="A13" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="218"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="219"/>
-      <c r="G13" s="219"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
-      <c r="L13" s="207"/>
+      <c r="L13" s="223"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="207" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="220"/>
-      <c r="C14" s="220"/>
-      <c r="D14" s="220"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="220"/>
-      <c r="H14" s="220"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="220"/>
-      <c r="L14" s="207"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="207"/>
+      <c r="L14" s="223"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="221" t="s">
+      <c r="A15" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="221"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
-      <c r="L15" s="207"/>
+      <c r="L15" s="223"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="222"/>
-      <c r="B16" s="222"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
+      <c r="A16" s="229"/>
+      <c r="B16" s="229"/>
+      <c r="C16" s="229"/>
+      <c r="D16" s="229"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="229"/>
+      <c r="G16" s="229"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
-      <c r="L16" s="207"/>
+      <c r="L16" s="223"/>
     </row>
     <row r="17" spans="1:14" ht="2.25" customHeight="1">
-      <c r="A17" s="208"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
+      <c r="A17" s="213"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
-      <c r="L17" s="207"/>
+      <c r="L17" s="223"/>
     </row>
     <row r="18" spans="1:14" ht="15.75">
-      <c r="A18" s="209" t="s">
+      <c r="A18" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="209"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="L18" s="207"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="L18" s="223"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="215" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="123"/>
-      <c r="C19" s="211" t="s">
+      <c r="C19" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="211" t="s">
+      <c r="D19" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="212" t="s">
+      <c r="E19" s="216" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="223"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="212" t="s">
+      <c r="F19" s="217"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="223"/>
-      <c r="J19" s="224"/>
-      <c r="L19" s="207"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="218"/>
+      <c r="L19" s="223"/>
     </row>
     <row r="20" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A20" s="210"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="123"/>
-      <c r="C20" s="211"/>
-      <c r="D20" s="211"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="225"/>
-      <c r="I20" s="226"/>
-      <c r="J20" s="227"/>
-      <c r="L20" s="207"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="221"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="221"/>
+      <c r="L20" s="223"/>
     </row>
     <row r="21" spans="1:14" s="153" customFormat="1" ht="30.75" customHeight="1">
       <c r="A21" s="123"/>
@@ -3963,7 +3983,7 @@
       </c>
       <c r="I21" s="129"/>
       <c r="J21" s="130"/>
-      <c r="L21" s="207"/>
+      <c r="L21" s="223"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="30">
@@ -3978,17 +3998,17 @@
       <c r="D22" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="203">
+      <c r="E22" s="204">
         <v>329</v>
       </c>
-      <c r="F22" s="204"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="203">
+      <c r="F22" s="205"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="204">
         <v>370</v>
       </c>
-      <c r="I22" s="204"/>
-      <c r="J22" s="205"/>
-      <c r="L22" s="207"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="206"/>
+      <c r="L22" s="223"/>
       <c r="M22" s="153" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B22&amp;","&amp;$E$21&amp;","&amp;E22&amp;");"</f>
         <v>insert into price (catId,tiraz,cena) values (135,145,329);</v>
@@ -4011,17 +4031,17 @@
       <c r="D23" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="203">
+      <c r="E23" s="204">
         <v>357</v>
       </c>
-      <c r="F23" s="204"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="203">
+      <c r="F23" s="205"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="204">
         <v>398</v>
       </c>
-      <c r="I23" s="204"/>
-      <c r="J23" s="205"/>
-      <c r="L23" s="207"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="206"/>
+      <c r="L23" s="223"/>
       <c r="M23" s="153" t="str">
         <f t="shared" ref="M23:M29" si="2">"insert into price (catId,tiraz,cena) values ("&amp;$B23&amp;","&amp;$E$21&amp;","&amp;E23&amp;");"</f>
         <v>insert into price (catId,tiraz,cena) values (136,145,357);</v>
@@ -4044,17 +4064,17 @@
       <c r="D24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="203">
+      <c r="E24" s="204">
         <v>432</v>
       </c>
-      <c r="F24" s="204"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="203">
+      <c r="F24" s="205"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="204">
         <v>473</v>
       </c>
-      <c r="I24" s="204"/>
-      <c r="J24" s="205"/>
-      <c r="L24" s="207"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
+      <c r="L24" s="223"/>
       <c r="M24" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (137,145,432);</v>
@@ -4077,17 +4097,17 @@
       <c r="D25" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="203">
+      <c r="E25" s="204">
         <v>343</v>
       </c>
-      <c r="F25" s="204"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="203">
+      <c r="F25" s="205"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="204">
         <v>370</v>
       </c>
-      <c r="I25" s="204"/>
-      <c r="J25" s="205"/>
-      <c r="L25" s="207"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="206"/>
+      <c r="L25" s="223"/>
       <c r="M25" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (138,145,343);</v>
@@ -4110,17 +4130,17 @@
       <c r="D26" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="203">
+      <c r="E26" s="204">
         <v>569</v>
       </c>
-      <c r="F26" s="204"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="203">
+      <c r="F26" s="205"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="204">
         <v>603</v>
       </c>
-      <c r="I26" s="204"/>
-      <c r="J26" s="205"/>
-      <c r="L26" s="207"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="206"/>
+      <c r="L26" s="223"/>
       <c r="M26" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (139,145,569);</v>
@@ -4143,17 +4163,17 @@
       <c r="D27" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="203">
+      <c r="E27" s="204">
         <v>781</v>
       </c>
-      <c r="F27" s="204"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="203">
+      <c r="F27" s="205"/>
+      <c r="G27" s="206"/>
+      <c r="H27" s="204">
         <v>822</v>
       </c>
-      <c r="I27" s="204"/>
-      <c r="J27" s="205"/>
-      <c r="L27" s="207"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="206"/>
+      <c r="L27" s="223"/>
       <c r="M27" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (140,145,781);</v>
@@ -4176,17 +4196,17 @@
       <c r="D28" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="203">
+      <c r="E28" s="204">
         <v>295</v>
       </c>
-      <c r="F28" s="204"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="203">
+      <c r="F28" s="205"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="204">
         <v>343</v>
       </c>
-      <c r="I28" s="204"/>
-      <c r="J28" s="205"/>
-      <c r="L28" s="207"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="206"/>
+      <c r="L28" s="223"/>
       <c r="M28" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (141,145,295);</v>
@@ -4209,17 +4229,17 @@
       <c r="D29" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="203">
+      <c r="E29" s="204">
         <v>822</v>
       </c>
-      <c r="F29" s="204"/>
-      <c r="G29" s="205"/>
-      <c r="H29" s="203">
+      <c r="F29" s="205"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="204">
         <v>891</v>
       </c>
-      <c r="I29" s="204"/>
-      <c r="J29" s="205"/>
-      <c r="L29" s="207"/>
+      <c r="I29" s="205"/>
+      <c r="J29" s="206"/>
+      <c r="L29" s="223"/>
       <c r="M29" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (142,145,822);</v>
@@ -4230,49 +4250,49 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="218" t="s">
+      <c r="A30" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="218"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
+      <c r="B30" s="209"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="210"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
-      <c r="L30" s="207"/>
+      <c r="L30" s="223"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
-      <c r="A31" s="220" t="s">
+      <c r="A31" s="207" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="220"/>
-      <c r="C31" s="220"/>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="220"/>
-      <c r="L31" s="207"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="207"/>
+      <c r="L31" s="223"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="221" t="s">
+      <c r="A32" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="221"/>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221"/>
-      <c r="F32" s="221"/>
-      <c r="G32" s="221"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="212"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="L32" s="207"/>
+      <c r="L32" s="223"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="36"/>
@@ -4285,69 +4305,69 @@
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
-      <c r="L33" s="207"/>
+      <c r="L33" s="223"/>
     </row>
     <row r="34" spans="1:13" ht="2.25" customHeight="1">
-      <c r="A34" s="208"/>
-      <c r="B34" s="208"/>
-      <c r="C34" s="208"/>
-      <c r="D34" s="208"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="208"/>
-      <c r="G34" s="208"/>
+      <c r="A34" s="213"/>
+      <c r="B34" s="213"/>
+      <c r="C34" s="213"/>
+      <c r="D34" s="213"/>
+      <c r="E34" s="213"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="213"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
-      <c r="L34" s="207"/>
+      <c r="L34" s="223"/>
     </row>
     <row r="35" spans="1:13" ht="15.75">
-      <c r="A35" s="209" t="s">
+      <c r="A35" s="214" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="209"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="209"/>
-      <c r="I35" s="209"/>
-      <c r="J35" s="209"/>
-      <c r="L35" s="207"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="214"/>
+      <c r="L35" s="223"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1">
-      <c r="A36" s="210" t="s">
+      <c r="A36" s="215" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="123"/>
-      <c r="C36" s="211" t="s">
+      <c r="C36" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="211" t="s">
+      <c r="D36" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="212" t="s">
+      <c r="E36" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="223"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="223"/>
-      <c r="I36" s="223"/>
-      <c r="J36" s="224"/>
-      <c r="L36" s="207"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="217"/>
+      <c r="I36" s="217"/>
+      <c r="J36" s="218"/>
+      <c r="L36" s="223"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="210"/>
+      <c r="A37" s="215"/>
       <c r="B37" s="123"/>
-      <c r="C37" s="211"/>
-      <c r="D37" s="211"/>
-      <c r="E37" s="225"/>
-      <c r="F37" s="226"/>
-      <c r="G37" s="226"/>
-      <c r="H37" s="226"/>
-      <c r="I37" s="226"/>
-      <c r="J37" s="227"/>
-      <c r="L37" s="207"/>
+      <c r="C37" s="208"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="219"/>
+      <c r="F37" s="220"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="221"/>
+      <c r="L37" s="223"/>
       <c r="M37" s="153" t="s">
         <v>151</v>
       </c>
@@ -4365,15 +4385,15 @@
       <c r="D38" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="203">
+      <c r="E38" s="204">
         <v>0</v>
       </c>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="205"/>
-      <c r="L38" s="207"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="206"/>
+      <c r="L38" s="223"/>
       <c r="M38" s="153" t="str">
         <f>"insert into price (catId,cena) values ("&amp;B38&amp;","&amp;E38&amp;");"</f>
         <v>insert into price (catId,cena) values (600,0);</v>
@@ -4392,15 +4412,15 @@
       <c r="D39" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="203">
+      <c r="E39" s="204">
         <v>7</v>
       </c>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="204"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="205"/>
-      <c r="L39" s="207"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="206"/>
+      <c r="L39" s="223"/>
       <c r="M39" s="153" t="str">
         <f t="shared" ref="M39:M46" si="4">"insert into price (catId,cena) values ("&amp;B39&amp;","&amp;E39&amp;");"</f>
         <v>insert into price (catId,cena) values (601,7);</v>
@@ -4419,15 +4439,15 @@
       <c r="D40" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="203">
+      <c r="E40" s="204">
         <v>21</v>
       </c>
-      <c r="F40" s="204"/>
-      <c r="G40" s="204"/>
-      <c r="H40" s="204"/>
-      <c r="I40" s="204"/>
-      <c r="J40" s="205"/>
-      <c r="L40" s="207"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="205"/>
+      <c r="H40" s="205"/>
+      <c r="I40" s="205"/>
+      <c r="J40" s="206"/>
+      <c r="L40" s="223"/>
       <c r="M40" s="153" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (catId,cena) values (602,21);</v>
@@ -4446,15 +4466,15 @@
       <c r="D41" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="203">
+      <c r="E41" s="204">
         <v>42</v>
       </c>
-      <c r="F41" s="204"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="204"/>
-      <c r="J41" s="205"/>
-      <c r="L41" s="207"/>
+      <c r="F41" s="205"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="205"/>
+      <c r="I41" s="205"/>
+      <c r="J41" s="206"/>
+      <c r="L41" s="223"/>
       <c r="M41" s="153" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (catId,cena) values (603,42);</v>
@@ -4473,15 +4493,15 @@
       <c r="D42" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="203">
+      <c r="E42" s="204">
         <v>62</v>
       </c>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="205"/>
-      <c r="L42" s="207"/>
+      <c r="F42" s="205"/>
+      <c r="G42" s="205"/>
+      <c r="H42" s="205"/>
+      <c r="I42" s="205"/>
+      <c r="J42" s="206"/>
+      <c r="L42" s="223"/>
       <c r="M42" s="153" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (catId,cena) values (604,62);</v>
@@ -4500,15 +4520,15 @@
       <c r="D43" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="203">
+      <c r="E43" s="204">
         <v>76</v>
       </c>
-      <c r="F43" s="204"/>
-      <c r="G43" s="204"/>
-      <c r="H43" s="204"/>
-      <c r="I43" s="204"/>
-      <c r="J43" s="205"/>
-      <c r="L43" s="207"/>
+      <c r="F43" s="205"/>
+      <c r="G43" s="205"/>
+      <c r="H43" s="205"/>
+      <c r="I43" s="205"/>
+      <c r="J43" s="206"/>
+      <c r="L43" s="223"/>
       <c r="M43" s="153" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (catId,cena) values (605,76);</v>
@@ -4527,15 +4547,15 @@
       <c r="D44" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="203">
+      <c r="E44" s="204">
         <v>21</v>
       </c>
-      <c r="F44" s="204"/>
-      <c r="G44" s="204"/>
-      <c r="H44" s="204"/>
-      <c r="I44" s="204"/>
-      <c r="J44" s="205"/>
-      <c r="L44" s="207"/>
+      <c r="F44" s="205"/>
+      <c r="G44" s="205"/>
+      <c r="H44" s="205"/>
+      <c r="I44" s="205"/>
+      <c r="J44" s="206"/>
+      <c r="L44" s="223"/>
       <c r="M44" s="153" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (catId,cena) values (606,21);</v>
@@ -4554,15 +4574,15 @@
       <c r="D45" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="203">
+      <c r="E45" s="204">
         <v>10</v>
       </c>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="205"/>
-      <c r="L45" s="207"/>
+      <c r="F45" s="205"/>
+      <c r="G45" s="205"/>
+      <c r="H45" s="205"/>
+      <c r="I45" s="205"/>
+      <c r="J45" s="206"/>
+      <c r="L45" s="223"/>
       <c r="M45" s="153" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (catId,cena) values (607,10);</v>
@@ -4581,36 +4601,85 @@
       <c r="D46" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="203">
+      <c r="E46" s="204">
         <v>192</v>
       </c>
-      <c r="F46" s="204"/>
-      <c r="G46" s="204"/>
-      <c r="H46" s="204"/>
-      <c r="I46" s="204"/>
-      <c r="J46" s="205"/>
-      <c r="L46" s="207"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="205"/>
+      <c r="I46" s="205"/>
+      <c r="J46" s="206"/>
+      <c r="L46" s="223"/>
       <c r="M46" s="153" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (catId,cena) values (608,192);</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="18.75">
-      <c r="A48" s="228"/>
-      <c r="B48" s="228"/>
-      <c r="C48" s="228"/>
-      <c r="D48" s="228"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="228"/>
-      <c r="G48" s="228"/>
-      <c r="H48" s="228"/>
-      <c r="I48" s="228"/>
-      <c r="J48" s="228"/>
-      <c r="K48" s="228"/>
-      <c r="L48" s="228"/>
+      <c r="A48" s="211"/>
+      <c r="B48" s="211"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="211"/>
+      <c r="G48" s="211"/>
+      <c r="H48" s="211"/>
+      <c r="I48" s="211"/>
+      <c r="J48" s="211"/>
+      <c r="K48" s="211"/>
+      <c r="L48" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="L1:L46"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="E44:J44"/>
     <mergeCell ref="E29:G29"/>
@@ -4627,55 +4696,6 @@
     <mergeCell ref="E42:J42"/>
     <mergeCell ref="E43:J43"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="L1:L46"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -4868,15 +4888,15 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" ref="M9:N9" si="1">"insert into price (catId,tiraz,cena) values ("&amp;$B9&amp;","&amp;D$8&amp;","&amp;D9&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (164,50,205.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (164,50,205,5);</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="1"/>
-        <v>insert into price (catId,tiraz,cena) values (164,100,181.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (164,100,181,5);</v>
       </c>
       <c r="O9" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B9&amp;","&amp;F$8&amp;","&amp;F9&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (164,200,163.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (164,200,163,5);</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75">
@@ -5257,11 +5277,11 @@
       </c>
       <c r="P5" t="str">
         <f t="shared" si="6"/>
-        <v>insert into price (catId,tiraz,cena) values (39,300 ,46.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (39,300 ,46,5);</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="7"/>
-        <v>insert into price (catId,tiraz,cena) values (39,500 ,37.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (39,500 ,37,5);</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" si="8"/>
@@ -5329,11 +5349,11 @@
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="7"/>
-        <v>insert into price (catId,tiraz,cena) values (40,500 ,46.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (40,500 ,46,5);</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="8"/>
-        <v>insert into price (catId,tiraz,cena) values (40,700 ,43.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (40,700 ,43,5);</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="9"/>
@@ -5557,11 +5577,11 @@
       </c>
       <c r="P14" t="str">
         <f t="shared" si="11"/>
-        <v>insert into price (catId,tiraz,cena) values (88,300 ,46.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (88,300 ,46,5);</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="11"/>
-        <v>insert into price (catId,tiraz,cena) values (88,500 ,37.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (88,500 ,37,5);</v>
       </c>
       <c r="R14" t="str">
         <f t="shared" si="11"/>
@@ -5629,11 +5649,11 @@
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="11"/>
-        <v>insert into price (catId,tiraz,cena) values (89,500 ,46.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (89,500 ,46,5);</v>
       </c>
       <c r="R15" t="str">
         <f t="shared" si="11"/>
-        <v>insert into price (catId,tiraz,cena) values (89,700 ,43.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (89,700 ,43,5);</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="11"/>
@@ -5697,7 +5717,7 @@
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="11"/>
-        <v>insert into price (catId,tiraz,cena) values (90,500 ,55.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (90,500 ,55,5);</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="11"/>
@@ -5705,7 +5725,7 @@
       </c>
       <c r="S16" t="str">
         <f t="shared" si="11"/>
-        <v>insert into price (catId,tiraz,cena) values (90,1000 ,43.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (90,1000 ,43,5);</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -6411,52 +6431,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId4" name="Элемент управления 2">
+        <control shapeId="2049" r:id="rId4" name="Элемент управления 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId4" name="Элемент управления 2"/>
+        <control shapeId="2049" r:id="rId4" name="Элемент управления 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId6" name="Элемент управления 1">
+        <control shapeId="2050" r:id="rId6" name="Элемент управления 2">
           <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId6" name="Элемент управления 1"/>
+        <control shapeId="2050" r:id="rId6" name="Элемент управления 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -6593,11 +6613,11 @@
       </c>
       <c r="Q3" s="139" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;C$2&amp;","&amp;C3&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (169,10,97.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (169,10,97,5);</v>
       </c>
       <c r="R3" s="139" t="str">
         <f t="shared" ref="R3:AB3" si="0">"insert into price (catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;D$2&amp;","&amp;D3&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (169,20,49.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (169,20,49,5);</v>
       </c>
       <c r="S3" s="139" t="str">
         <f t="shared" si="0"/>
@@ -6613,7 +6633,7 @@
       </c>
       <c r="V3" s="139" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (169,100,19.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (169,100,19,5);</v>
       </c>
       <c r="W3" s="139" t="str">
         <f t="shared" si="0"/>
@@ -6621,7 +6641,7 @@
       </c>
       <c r="X3" s="139" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (169,300,16.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (169,300,16,5);</v>
       </c>
       <c r="Y3" s="139" t="str">
         <f t="shared" si="0"/>
@@ -6629,7 +6649,7 @@
       </c>
       <c r="Z3" s="139" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (169,700,13.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (169,700,13,5);</v>
       </c>
       <c r="AA3" s="139" t="str">
         <f t="shared" si="0"/>
@@ -6637,11 +6657,11 @@
       </c>
       <c r="AB3" s="139" t="str">
         <f t="shared" si="0"/>
-        <v>insert into price (catId,tiraz,cena) values (169,3000,11.25);</v>
+        <v>insert into price (catId,tiraz,cena) values (169,3000,11,25);</v>
       </c>
       <c r="AC3" s="139" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B3&amp;","&amp;O$2&amp;","&amp;O3&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (169,5000,11.25);</v>
+        <v>insert into price (catId,tiraz,cena) values (169,5000,11,25);</v>
       </c>
       <c r="AD3" s="139"/>
       <c r="AE3" s="139"/>
@@ -6756,15 +6776,15 @@
       </c>
       <c r="R7" s="139" t="str">
         <f t="shared" ref="R7:V7" si="1">"insert into price (catId,tiraz,cena) values ("&amp;$B7&amp;","&amp;D$6&amp;","&amp;D7&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (170,100,37.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (170,100,37,5);</v>
       </c>
       <c r="S7" s="139" t="str">
         <f t="shared" si="1"/>
-        <v>insert into price (catId,tiraz,cena) values (170,200,34.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (170,200,34,5);</v>
       </c>
       <c r="T7" s="139" t="str">
         <f t="shared" si="1"/>
-        <v>insert into price (catId,tiraz,cena) values (170,400,31.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (170,400,31,5);</v>
       </c>
       <c r="U7" s="139" t="str">
         <f t="shared" si="1"/>
@@ -6772,7 +6792,7 @@
       </c>
       <c r="V7" s="139" t="str">
         <f t="shared" si="1"/>
-        <v>insert into price (catId,tiraz,cena) values (170,800,28.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (170,800,28,5);</v>
       </c>
       <c r="W7" s="139" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B7&amp;","&amp;I$6&amp;","&amp;I7&amp;");"</f>
@@ -6884,11 +6904,11 @@
       <c r="O11" s="47"/>
       <c r="Q11" s="139" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B11&amp;","&amp;C$10&amp;","&amp;C11&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (171,10,97.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (171,10,97,5);</v>
       </c>
       <c r="R11" s="139" t="str">
         <f t="shared" ref="R11:U11" si="2">"insert into price (catId,tiraz,cena) values ("&amp;$B11&amp;","&amp;D$10&amp;","&amp;D11&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (171,20,49.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (171,20,49,5);</v>
       </c>
       <c r="S11" s="139" t="str">
         <f t="shared" si="2"/>
@@ -6900,15 +6920,15 @@
       </c>
       <c r="U11" s="139" t="str">
         <f t="shared" si="2"/>
-        <v>insert into price (catId,tiraz,cena) values (171,50,37.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (171,50,37,5);</v>
       </c>
       <c r="V11" s="139" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B11&amp;","&amp;H$10&amp;","&amp;H11&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (171,100,25.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (171,100,25,5);</v>
       </c>
       <c r="W11" s="139" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B11&amp;","&amp;I$10&amp;","&amp;I11&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (171,200,22.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (171,200,22,5);</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -7028,11 +7048,11 @@
       <c r="O16" s="74"/>
       <c r="Q16" s="139" t="str">
         <f t="shared" ref="Q16:R16" si="3">"insert into price (catId,tiraz,cena) values ("&amp;$B16&amp;","&amp;C$14&amp;","&amp;C16&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (174,10,142.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (174,10,142,5);</v>
       </c>
       <c r="R16" s="139" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (174,200,127.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (174,200,127,5);</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -7060,7 +7080,7 @@
       <c r="O17" s="74"/>
       <c r="Q17" s="139" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B17&amp;","&amp;C$14&amp;","&amp;C17&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (175,10,97.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (175,10,97,5);</v>
       </c>
       <c r="R17" s="139" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B17&amp;","&amp;D$14&amp;","&amp;D17&amp;");"</f>
@@ -7548,35 +7568,35 @@
       </c>
       <c r="N9" s="139" t="str">
         <f t="shared" si="1"/>
-        <v>insert into price (catId,tiraz,cena) values (183,10,147.15);</v>
+        <v>insert into price (catId,tiraz,cena) values (183,10,147,15);</v>
       </c>
       <c r="O9" s="139" t="str">
         <f t="shared" si="2"/>
-        <v>insert into price (catId,tiraz,cena) values (183,20,79.65);</v>
+        <v>insert into price (catId,tiraz,cena) values (183,20,79,65);</v>
       </c>
       <c r="P9" s="139" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (183,50,39.15);</v>
+        <v>insert into price (catId,tiraz,cena) values (183,50,39,15);</v>
       </c>
       <c r="Q9" s="139" t="str">
         <f t="shared" si="4"/>
-        <v>insert into price (catId,tiraz,cena) values (183,100,25.65);</v>
+        <v>insert into price (catId,tiraz,cena) values (183,100,25,65);</v>
       </c>
       <c r="R9" s="139" t="str">
         <f t="shared" si="5"/>
-        <v>insert into price (catId,tiraz,cena) values (183,200,18.9);</v>
+        <v>insert into price (catId,tiraz,cena) values (183,200,18,9);</v>
       </c>
       <c r="S9" s="139" t="str">
         <f t="shared" si="6"/>
-        <v>insert into price (catId,tiraz,cena) values (183,300,16.65);</v>
+        <v>insert into price (catId,tiraz,cena) values (183,300,16,65);</v>
       </c>
       <c r="T9" s="139" t="str">
         <f t="shared" si="7"/>
-        <v>insert into price (catId,tiraz,cena) values (183,500,14.85);</v>
+        <v>insert into price (catId,tiraz,cena) values (183,500,14,85);</v>
       </c>
       <c r="U9" s="139" t="str">
         <f t="shared" si="8"/>
-        <v>insert into price (catId,tiraz,cena) values (183,1000,13.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (183,1000,13,5);</v>
       </c>
       <c r="V9" s="140"/>
     </row>
@@ -7817,31 +7837,31 @@
       </c>
       <c r="N13" s="139" t="str">
         <f t="shared" si="1"/>
-        <v>insert into price (catId,tiraz,cena) values (187,10,196.2);</v>
+        <v>insert into price (catId,tiraz,cena) values (187,10,196,2);</v>
       </c>
       <c r="O13" s="139" t="str">
         <f t="shared" si="2"/>
-        <v>insert into price (catId,tiraz,cena) values (187,20,106.2);</v>
+        <v>insert into price (catId,tiraz,cena) values (187,20,106,2);</v>
       </c>
       <c r="P13" s="139" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (187,50,52.2);</v>
+        <v>insert into price (catId,tiraz,cena) values (187,50,52,2);</v>
       </c>
       <c r="Q13" s="139" t="str">
         <f t="shared" si="4"/>
-        <v>insert into price (catId,tiraz,cena) values (187,100,34.2);</v>
+        <v>insert into price (catId,tiraz,cena) values (187,100,34,2);</v>
       </c>
       <c r="R13" s="139" t="str">
         <f t="shared" si="5"/>
-        <v>insert into price (catId,tiraz,cena) values (187,200,25.2);</v>
+        <v>insert into price (catId,tiraz,cena) values (187,200,25,2);</v>
       </c>
       <c r="S13" s="139" t="str">
         <f t="shared" si="6"/>
-        <v>insert into price (catId,tiraz,cena) values (187,300,22.2);</v>
+        <v>insert into price (catId,tiraz,cena) values (187,300,22,2);</v>
       </c>
       <c r="T13" s="139" t="str">
         <f t="shared" si="7"/>
-        <v>insert into price (catId,tiraz,cena) values (187,500,19.8);</v>
+        <v>insert into price (catId,tiraz,cena) values (187,500,19,8);</v>
       </c>
       <c r="U13" s="139" t="str">
         <f t="shared" si="8"/>
@@ -8765,7 +8785,7 @@
       </c>
       <c r="R5" s="152" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;B5&amp;","&amp;0&amp;","&amp;I5&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (191,0,4.8);</v>
+        <v>insert into price (catId,tiraz,cena) values (191,0,4,8);</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -8797,7 +8817,7 @@
       </c>
       <c r="R6" s="152" t="str">
         <f t="shared" ref="R6:R14" si="2">"insert into price (catId,tiraz,cena) values ("&amp;B6&amp;","&amp;0&amp;","&amp;I6&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (192,0,5.1);</v>
+        <v>insert into price (catId,tiraz,cena) values (192,0,5,1);</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -8863,7 +8883,7 @@
       </c>
       <c r="R8" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>insert into price (catId,tiraz,cena) values (194,0,10.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (194,0,10,5);</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -8895,7 +8915,7 @@
       </c>
       <c r="R9" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>insert into price (catId,tiraz,cena) values (195,0,12.15);</v>
+        <v>insert into price (catId,tiraz,cena) values (195,0,12,15);</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -8961,7 +8981,7 @@
       </c>
       <c r="R11" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>insert into price (catId,tiraz,cena) values (197,0,12.75);</v>
+        <v>insert into price (catId,tiraz,cena) values (197,0,12,75);</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -9141,7 +9161,7 @@
       </c>
       <c r="N20" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (83,500,14.25);</v>
+        <v>insert into price (catId,tiraz,cena) values (83,500,14,25);</v>
       </c>
       <c r="O20" s="153" t="str">
         <f t="shared" si="3"/>
@@ -9149,11 +9169,11 @@
       </c>
       <c r="P20" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (83,2000,11.25);</v>
+        <v>insert into price (catId,tiraz,cena) values (83,2000,11,25);</v>
       </c>
       <c r="Q20" s="153" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B20&amp;","&amp;H$19&amp;","&amp;H20&amp;");"</f>
-        <v>insert into price (catId,tiraz,cena) values (83,5000,10.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (83,5000,10,5);</v>
       </c>
       <c r="R20" s="153"/>
       <c r="S20" s="153"/>
@@ -9200,7 +9220,7 @@
       </c>
       <c r="N21" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (84,500,19.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (84,500,19,5);</v>
       </c>
       <c r="O21" s="153" t="str">
         <f t="shared" si="3"/>
@@ -9267,7 +9287,7 @@
       </c>
       <c r="P22" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (85,2000,18.75);</v>
+        <v>insert into price (catId,tiraz,cena) values (85,2000,18,75);</v>
       </c>
       <c r="Q22" s="153" t="str">
         <f t="shared" si="3"/>
@@ -9326,7 +9346,7 @@
       </c>
       <c r="P23" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>insert into price (catId,tiraz,cena) values (86,2000,22.5);</v>
+        <v>insert into price (catId,tiraz,cena) values (86,2000,22,5);</v>
       </c>
       <c r="Q23" s="153" t="str">
         <f t="shared" si="3"/>
@@ -9365,7 +9385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>

--- a/калькулятор 5 - блокноты, деколь/калькулятор 3 старый с sql.xlsx
+++ b/калькулятор 5 - блокноты, деколь/калькулятор 3 старый с sql.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7065" windowHeight="8760" tabRatio="915"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7065" windowHeight="8760" tabRatio="915" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="тампопечать" sheetId="1" r:id="rId1"/>
@@ -490,9 +490,6 @@
     <t>delete price where (catId&gt;=130) and (catId&lt;=142) ;</t>
   </si>
   <si>
-    <t>delete price where (catId&gt;=600) and (catId&lt;=608);</t>
-  </si>
-  <si>
     <t>размер</t>
   </si>
   <si>
@@ -512,6 +509,9 @@
   </si>
   <si>
     <t>A2 (40х50см)</t>
+  </si>
+  <si>
+    <t>delete price where (catId&gt;=510) and (catId&lt;=518);</t>
   </si>
 </sst>
 </file>
@@ -2303,86 +2303,86 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2419,13 +2419,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>112059</xdr:rowOff>
+          <xdr:rowOff>93009</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>140634</xdr:rowOff>
+          <xdr:rowOff>121584</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2466,13 +2466,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>112059</xdr:rowOff>
+          <xdr:rowOff>93009</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>140634</xdr:rowOff>
+          <xdr:rowOff>121584</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2552,7 +2552,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2587,7 +2587,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2774,7 +2774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -3547,10 +3547,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T45" sqref="T37:U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3570,96 +3570,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="55.5" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="L1" s="222"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="L1" s="206"/>
     </row>
     <row r="2" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="L2" s="223"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="L2" s="207"/>
     </row>
     <row r="3" spans="1:14" ht="2.25" customHeight="1">
-      <c r="A3" s="213"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
-      <c r="L3" s="223"/>
+      <c r="L3" s="207"/>
     </row>
     <row r="4" spans="1:14" ht="15.75">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="L4" s="223"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="L4" s="207"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="123"/>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="208" t="s">
+      <c r="D5" s="211" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="216" t="s">
+      <c r="E5" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="224"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="216" t="s">
+      <c r="F5" s="213"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="224"/>
-      <c r="J5" s="225"/>
-      <c r="L5" s="223"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="214"/>
+      <c r="L5" s="207"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="215"/>
+      <c r="A6" s="210"/>
       <c r="B6" s="123"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="228"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="228"/>
-      <c r="L6" s="223"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="217"/>
+      <c r="L6" s="207"/>
     </row>
     <row r="7" spans="1:14" s="153" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="123"/>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="I7" s="126"/>
       <c r="J7" s="127"/>
-      <c r="L7" s="223"/>
+      <c r="L7" s="207"/>
       <c r="M7" s="153" t="s">
         <v>150</v>
       </c>
@@ -3694,17 +3694,17 @@
       <c r="D8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="204">
+      <c r="E8" s="203">
         <v>165</v>
       </c>
-      <c r="F8" s="205"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="204">
+      <c r="F8" s="204"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="203">
         <v>192</v>
       </c>
-      <c r="I8" s="205"/>
-      <c r="J8" s="206"/>
-      <c r="L8" s="223"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="205"/>
+      <c r="L8" s="207"/>
       <c r="M8" s="153" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B8&amp;","&amp;$E$7&amp;","&amp;E8&amp;");"</f>
         <v>insert into price (catId,tiraz,cena) values (130,143,165);</v>
@@ -3727,17 +3727,17 @@
       <c r="D9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="204">
+      <c r="E9" s="203">
         <v>192</v>
       </c>
-      <c r="F9" s="205"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="204">
+      <c r="F9" s="204"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="203">
         <v>220</v>
       </c>
-      <c r="I9" s="205"/>
-      <c r="J9" s="206"/>
-      <c r="L9" s="223"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="205"/>
+      <c r="L9" s="207"/>
       <c r="M9" s="153" t="str">
         <f t="shared" ref="M9:M12" si="0">"insert into price (catId,tiraz,cena) values ("&amp;$B9&amp;","&amp;$E$7&amp;","&amp;E9&amp;");"</f>
         <v>insert into price (catId,tiraz,cena) values (131,143,192);</v>
@@ -3760,17 +3760,17 @@
       <c r="D10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="204">
+      <c r="E10" s="203">
         <v>302</v>
       </c>
-      <c r="F10" s="205"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="204">
+      <c r="F10" s="204"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="203">
         <v>329</v>
       </c>
-      <c r="I10" s="205"/>
-      <c r="J10" s="206"/>
-      <c r="L10" s="223"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
+      <c r="L10" s="207"/>
       <c r="M10" s="153" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (catId,tiraz,cena) values (132,143,302);</v>
@@ -3793,17 +3793,17 @@
       <c r="D11" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="204">
+      <c r="E11" s="203">
         <v>439</v>
       </c>
-      <c r="F11" s="205"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="204">
+      <c r="F11" s="204"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="203">
         <v>466</v>
       </c>
-      <c r="I11" s="205"/>
-      <c r="J11" s="206"/>
-      <c r="L11" s="223"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="205"/>
+      <c r="L11" s="207"/>
       <c r="M11" s="153" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (catId,tiraz,cena) values (133,143,439);</v>
@@ -3826,17 +3826,17 @@
       <c r="D12" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="204">
+      <c r="E12" s="203">
         <v>295</v>
       </c>
-      <c r="F12" s="205"/>
-      <c r="G12" s="206"/>
-      <c r="H12" s="204">
+      <c r="F12" s="204"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="203">
         <v>322</v>
       </c>
-      <c r="I12" s="205"/>
-      <c r="J12" s="206"/>
-      <c r="L12" s="223"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="205"/>
+      <c r="L12" s="207"/>
       <c r="M12" s="153" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (catId,tiraz,cena) values (134,143,295);</v>
@@ -3847,126 +3847,126 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="209" t="s">
+      <c r="A13" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="209"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="219"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
-      <c r="L13" s="223"/>
+      <c r="L13" s="207"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="207" t="s">
+      <c r="A14" s="220" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="207"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="207"/>
-      <c r="L14" s="223"/>
+      <c r="B14" s="220"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="220"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="220"/>
+      <c r="H14" s="220"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="220"/>
+      <c r="L14" s="207"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="212" t="s">
+      <c r="A15" s="221" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="212"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
-      <c r="L15" s="223"/>
+      <c r="L15" s="207"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="229"/>
-      <c r="B16" s="229"/>
-      <c r="C16" s="229"/>
-      <c r="D16" s="229"/>
-      <c r="E16" s="229"/>
-      <c r="F16" s="229"/>
-      <c r="G16" s="229"/>
+      <c r="A16" s="222"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
-      <c r="L16" s="223"/>
+      <c r="L16" s="207"/>
     </row>
     <row r="17" spans="1:14" ht="2.25" customHeight="1">
-      <c r="A17" s="213"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
+      <c r="A17" s="208"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
-      <c r="L17" s="223"/>
+      <c r="L17" s="207"/>
     </row>
     <row r="18" spans="1:14" ht="15.75">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="214"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="L18" s="223"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="L18" s="207"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="215" t="s">
+      <c r="A19" s="210" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="123"/>
-      <c r="C19" s="208" t="s">
+      <c r="C19" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="208" t="s">
+      <c r="D19" s="211" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="216" t="s">
+      <c r="E19" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="217"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="216" t="s">
+      <c r="F19" s="223"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="217"/>
-      <c r="J19" s="218"/>
-      <c r="L19" s="223"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="224"/>
+      <c r="L19" s="207"/>
     </row>
     <row r="20" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A20" s="215"/>
+      <c r="A20" s="210"/>
       <c r="B20" s="123"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="220"/>
-      <c r="J20" s="221"/>
-      <c r="L20" s="223"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="225"/>
+      <c r="I20" s="226"/>
+      <c r="J20" s="227"/>
+      <c r="L20" s="207"/>
     </row>
     <row r="21" spans="1:14" s="153" customFormat="1" ht="30.75" customHeight="1">
       <c r="A21" s="123"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="I21" s="129"/>
       <c r="J21" s="130"/>
-      <c r="L21" s="223"/>
+      <c r="L21" s="207"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="30">
@@ -3998,17 +3998,17 @@
       <c r="D22" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="204">
+      <c r="E22" s="203">
         <v>329</v>
       </c>
-      <c r="F22" s="205"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="204">
+      <c r="F22" s="204"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="203">
         <v>370</v>
       </c>
-      <c r="I22" s="205"/>
-      <c r="J22" s="206"/>
-      <c r="L22" s="223"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="205"/>
+      <c r="L22" s="207"/>
       <c r="M22" s="153" t="str">
         <f>"insert into price (catId,tiraz,cena) values ("&amp;$B22&amp;","&amp;$E$21&amp;","&amp;E22&amp;");"</f>
         <v>insert into price (catId,tiraz,cena) values (135,145,329);</v>
@@ -4031,17 +4031,17 @@
       <c r="D23" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="204">
+      <c r="E23" s="203">
         <v>357</v>
       </c>
-      <c r="F23" s="205"/>
-      <c r="G23" s="206"/>
-      <c r="H23" s="204">
+      <c r="F23" s="204"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="203">
         <v>398</v>
       </c>
-      <c r="I23" s="205"/>
-      <c r="J23" s="206"/>
-      <c r="L23" s="223"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="205"/>
+      <c r="L23" s="207"/>
       <c r="M23" s="153" t="str">
         <f t="shared" ref="M23:M29" si="2">"insert into price (catId,tiraz,cena) values ("&amp;$B23&amp;","&amp;$E$21&amp;","&amp;E23&amp;");"</f>
         <v>insert into price (catId,tiraz,cena) values (136,145,357);</v>
@@ -4064,17 +4064,17 @@
       <c r="D24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="204">
+      <c r="E24" s="203">
         <v>432</v>
       </c>
-      <c r="F24" s="205"/>
-      <c r="G24" s="206"/>
-      <c r="H24" s="204">
+      <c r="F24" s="204"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="203">
         <v>473</v>
       </c>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
-      <c r="L24" s="223"/>
+      <c r="I24" s="204"/>
+      <c r="J24" s="205"/>
+      <c r="L24" s="207"/>
       <c r="M24" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (137,145,432);</v>
@@ -4097,17 +4097,17 @@
       <c r="D25" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="204">
+      <c r="E25" s="203">
         <v>343</v>
       </c>
-      <c r="F25" s="205"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="204">
+      <c r="F25" s="204"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="203">
         <v>370</v>
       </c>
-      <c r="I25" s="205"/>
-      <c r="J25" s="206"/>
-      <c r="L25" s="223"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="205"/>
+      <c r="L25" s="207"/>
       <c r="M25" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (138,145,343);</v>
@@ -4130,17 +4130,17 @@
       <c r="D26" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="204">
+      <c r="E26" s="203">
         <v>569</v>
       </c>
-      <c r="F26" s="205"/>
-      <c r="G26" s="206"/>
-      <c r="H26" s="204">
+      <c r="F26" s="204"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="203">
         <v>603</v>
       </c>
-      <c r="I26" s="205"/>
-      <c r="J26" s="206"/>
-      <c r="L26" s="223"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="205"/>
+      <c r="L26" s="207"/>
       <c r="M26" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (139,145,569);</v>
@@ -4163,17 +4163,17 @@
       <c r="D27" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="204">
+      <c r="E27" s="203">
         <v>781</v>
       </c>
-      <c r="F27" s="205"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="204">
+      <c r="F27" s="204"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="203">
         <v>822</v>
       </c>
-      <c r="I27" s="205"/>
-      <c r="J27" s="206"/>
-      <c r="L27" s="223"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="205"/>
+      <c r="L27" s="207"/>
       <c r="M27" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (140,145,781);</v>
@@ -4196,17 +4196,17 @@
       <c r="D28" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="204">
+      <c r="E28" s="203">
         <v>295</v>
       </c>
-      <c r="F28" s="205"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="204">
+      <c r="F28" s="204"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="203">
         <v>343</v>
       </c>
-      <c r="I28" s="205"/>
-      <c r="J28" s="206"/>
-      <c r="L28" s="223"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="205"/>
+      <c r="L28" s="207"/>
       <c r="M28" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (141,145,295);</v>
@@ -4229,17 +4229,17 @@
       <c r="D29" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="204">
+      <c r="E29" s="203">
         <v>822</v>
       </c>
-      <c r="F29" s="205"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="204">
+      <c r="F29" s="204"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="203">
         <v>891</v>
       </c>
-      <c r="I29" s="205"/>
-      <c r="J29" s="206"/>
-      <c r="L29" s="223"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="205"/>
+      <c r="L29" s="207"/>
       <c r="M29" s="153" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (catId,tiraz,cena) values (142,145,822);</v>
@@ -4250,51 +4250,51 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="209" t="s">
+      <c r="A30" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="209"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="210"/>
+      <c r="B30" s="218"/>
+      <c r="C30" s="219"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
-      <c r="L30" s="223"/>
+      <c r="L30" s="207"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
-      <c r="A31" s="207" t="s">
+      <c r="A31" s="220" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="207"/>
-      <c r="C31" s="207"/>
-      <c r="D31" s="207"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="207"/>
-      <c r="L31" s="223"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="220"/>
+      <c r="L31" s="207"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="212" t="s">
+      <c r="A32" s="221" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="212"/>
-      <c r="C32" s="212"/>
-      <c r="D32" s="212"/>
-      <c r="E32" s="212"/>
-      <c r="F32" s="212"/>
-      <c r="G32" s="212"/>
+      <c r="B32" s="221"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
-      <c r="L32" s="223"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="L32" s="207"/>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -4305,79 +4305,79 @@
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
-      <c r="L33" s="223"/>
-    </row>
-    <row r="34" spans="1:13" ht="2.25" customHeight="1">
-      <c r="A34" s="213"/>
-      <c r="B34" s="213"/>
-      <c r="C34" s="213"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
+      <c r="L33" s="207"/>
+    </row>
+    <row r="34" spans="1:21" ht="2.25" customHeight="1">
+      <c r="A34" s="208"/>
+      <c r="B34" s="208"/>
+      <c r="C34" s="208"/>
+      <c r="D34" s="208"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="208"/>
+      <c r="G34" s="208"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
-      <c r="L34" s="223"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75">
-      <c r="A35" s="214" t="s">
+      <c r="L34" s="207"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.75">
+      <c r="A35" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="214"/>
-      <c r="C35" s="214"/>
-      <c r="D35" s="214"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="214"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="214"/>
-      <c r="J35" s="214"/>
-      <c r="L35" s="223"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1">
-      <c r="A36" s="215" t="s">
+      <c r="B35" s="209"/>
+      <c r="C35" s="209"/>
+      <c r="D35" s="209"/>
+      <c r="E35" s="209"/>
+      <c r="F35" s="209"/>
+      <c r="G35" s="209"/>
+      <c r="H35" s="209"/>
+      <c r="I35" s="209"/>
+      <c r="J35" s="209"/>
+      <c r="L35" s="207"/>
+    </row>
+    <row r="36" spans="1:21" ht="15" customHeight="1">
+      <c r="A36" s="210" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="123"/>
-      <c r="C36" s="208" t="s">
+      <c r="C36" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="208" t="s">
+      <c r="D36" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="216" t="s">
+      <c r="E36" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="217"/>
-      <c r="G36" s="217"/>
-      <c r="H36" s="217"/>
-      <c r="I36" s="217"/>
-      <c r="J36" s="218"/>
-      <c r="L36" s="223"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="215"/>
+      <c r="F36" s="223"/>
+      <c r="G36" s="223"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="224"/>
+      <c r="L36" s="207"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="210"/>
       <c r="B37" s="123"/>
-      <c r="C37" s="208"/>
-      <c r="D37" s="208"/>
-      <c r="E37" s="219"/>
-      <c r="F37" s="220"/>
-      <c r="G37" s="220"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="220"/>
-      <c r="J37" s="221"/>
-      <c r="L37" s="223"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="225"/>
+      <c r="F37" s="226"/>
+      <c r="G37" s="226"/>
+      <c r="H37" s="226"/>
+      <c r="I37" s="226"/>
+      <c r="J37" s="227"/>
+      <c r="L37" s="207"/>
       <c r="M37" s="153" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="30">
         <v>1</v>
       </c>
       <c r="B38" s="30">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>75</v>
@@ -4385,26 +4385,27 @@
       <c r="D38" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="204">
+      <c r="E38" s="203">
         <v>0</v>
       </c>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="206"/>
-      <c r="L38" s="223"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="205"/>
+      <c r="L38" s="207"/>
       <c r="M38" s="153" t="str">
         <f>"insert into price (catId,cena) values ("&amp;B38&amp;","&amp;E38&amp;");"</f>
-        <v>insert into price (catId,cena) values (600,0);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>insert into price (catId,cena) values (510,0);</v>
+      </c>
+      <c r="U38" s="153"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="30">
         <v>2</v>
       </c>
       <c r="B39" s="30">
-        <v>601</v>
+        <v>511</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>77</v>
@@ -4412,26 +4413,27 @@
       <c r="D39" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="204">
+      <c r="E39" s="203">
         <v>7</v>
       </c>
-      <c r="F39" s="205"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="205"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="206"/>
-      <c r="L39" s="223"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="205"/>
+      <c r="L39" s="207"/>
       <c r="M39" s="153" t="str">
         <f t="shared" ref="M39:M46" si="4">"insert into price (catId,cena) values ("&amp;B39&amp;","&amp;E39&amp;");"</f>
-        <v>insert into price (catId,cena) values (601,7);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>insert into price (catId,cena) values (511,7);</v>
+      </c>
+      <c r="U39" s="153"/>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="30">
         <v>3</v>
       </c>
       <c r="B40" s="30">
-        <v>602</v>
+        <v>512</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>79</v>
@@ -4439,26 +4441,27 @@
       <c r="D40" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="204">
+      <c r="E40" s="203">
         <v>21</v>
       </c>
-      <c r="F40" s="205"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
-      <c r="I40" s="205"/>
-      <c r="J40" s="206"/>
-      <c r="L40" s="223"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
+      <c r="J40" s="205"/>
+      <c r="L40" s="207"/>
       <c r="M40" s="153" t="str">
         <f t="shared" si="4"/>
-        <v>insert into price (catId,cena) values (602,21);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>insert into price (catId,cena) values (512,21);</v>
+      </c>
+      <c r="U40" s="153"/>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="30">
         <v>4</v>
       </c>
       <c r="B41" s="30">
-        <v>603</v>
+        <v>513</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>81</v>
@@ -4466,26 +4469,27 @@
       <c r="D41" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="204">
+      <c r="E41" s="203">
         <v>42</v>
       </c>
-      <c r="F41" s="205"/>
-      <c r="G41" s="205"/>
-      <c r="H41" s="205"/>
-      <c r="I41" s="205"/>
-      <c r="J41" s="206"/>
-      <c r="L41" s="223"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="205"/>
+      <c r="L41" s="207"/>
       <c r="M41" s="153" t="str">
         <f t="shared" si="4"/>
-        <v>insert into price (catId,cena) values (603,42);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>insert into price (catId,cena) values (513,42);</v>
+      </c>
+      <c r="U41" s="153"/>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="30">
         <v>5</v>
       </c>
       <c r="B42" s="30">
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>82</v>
@@ -4493,26 +4497,27 @@
       <c r="D42" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="204">
+      <c r="E42" s="203">
         <v>62</v>
       </c>
-      <c r="F42" s="205"/>
-      <c r="G42" s="205"/>
-      <c r="H42" s="205"/>
-      <c r="I42" s="205"/>
-      <c r="J42" s="206"/>
-      <c r="L42" s="223"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
+      <c r="J42" s="205"/>
+      <c r="L42" s="207"/>
       <c r="M42" s="153" t="str">
         <f t="shared" si="4"/>
-        <v>insert into price (catId,cena) values (604,62);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>insert into price (catId,cena) values (514,62);</v>
+      </c>
+      <c r="U42" s="153"/>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="30">
         <v>6</v>
       </c>
       <c r="B43" s="30">
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>83</v>
@@ -4520,26 +4525,27 @@
       <c r="D43" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="204">
+      <c r="E43" s="203">
         <v>76</v>
       </c>
-      <c r="F43" s="205"/>
-      <c r="G43" s="205"/>
-      <c r="H43" s="205"/>
-      <c r="I43" s="205"/>
-      <c r="J43" s="206"/>
-      <c r="L43" s="223"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="204"/>
+      <c r="H43" s="204"/>
+      <c r="I43" s="204"/>
+      <c r="J43" s="205"/>
+      <c r="L43" s="207"/>
       <c r="M43" s="153" t="str">
         <f t="shared" si="4"/>
-        <v>insert into price (catId,cena) values (605,76);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>insert into price (catId,cena) values (515,76);</v>
+      </c>
+      <c r="U43" s="153"/>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="30">
         <v>7</v>
       </c>
       <c r="B44" s="30">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>84</v>
@@ -4547,26 +4553,27 @@
       <c r="D44" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="204">
+      <c r="E44" s="203">
         <v>21</v>
       </c>
-      <c r="F44" s="205"/>
-      <c r="G44" s="205"/>
-      <c r="H44" s="205"/>
-      <c r="I44" s="205"/>
-      <c r="J44" s="206"/>
-      <c r="L44" s="223"/>
+      <c r="F44" s="204"/>
+      <c r="G44" s="204"/>
+      <c r="H44" s="204"/>
+      <c r="I44" s="204"/>
+      <c r="J44" s="205"/>
+      <c r="L44" s="207"/>
       <c r="M44" s="153" t="str">
         <f t="shared" si="4"/>
-        <v>insert into price (catId,cena) values (606,21);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>insert into price (catId,cena) values (516,21);</v>
+      </c>
+      <c r="U44" s="153"/>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="30">
         <v>8</v>
       </c>
       <c r="B45" s="30">
-        <v>607</v>
+        <v>517</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>85</v>
@@ -4574,26 +4581,27 @@
       <c r="D45" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="204">
+      <c r="E45" s="203">
         <v>10</v>
       </c>
-      <c r="F45" s="205"/>
-      <c r="G45" s="205"/>
-      <c r="H45" s="205"/>
-      <c r="I45" s="205"/>
-      <c r="J45" s="206"/>
-      <c r="L45" s="223"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="205"/>
+      <c r="L45" s="207"/>
       <c r="M45" s="153" t="str">
         <f t="shared" si="4"/>
-        <v>insert into price (catId,cena) values (607,10);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>insert into price (catId,cena) values (517,10);</v>
+      </c>
+      <c r="U45" s="153"/>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="30">
         <v>9</v>
       </c>
       <c r="B46" s="30">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>86</v>
@@ -4601,36 +4609,85 @@
       <c r="D46" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="204">
+      <c r="E46" s="203">
         <v>192</v>
       </c>
-      <c r="F46" s="205"/>
-      <c r="G46" s="205"/>
-      <c r="H46" s="205"/>
-      <c r="I46" s="205"/>
-      <c r="J46" s="206"/>
-      <c r="L46" s="223"/>
+      <c r="F46" s="204"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="205"/>
+      <c r="L46" s="207"/>
       <c r="M46" s="153" t="str">
         <f t="shared" si="4"/>
-        <v>insert into price (catId,cena) values (608,192);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="18.75">
-      <c r="A48" s="211"/>
-      <c r="B48" s="211"/>
-      <c r="C48" s="211"/>
-      <c r="D48" s="211"/>
-      <c r="E48" s="211"/>
-      <c r="F48" s="211"/>
-      <c r="G48" s="211"/>
-      <c r="H48" s="211"/>
-      <c r="I48" s="211"/>
-      <c r="J48" s="211"/>
-      <c r="K48" s="211"/>
-      <c r="L48" s="211"/>
+        <v>insert into price (catId,cena) values (518,192);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="18.75">
+      <c r="A48" s="228"/>
+      <c r="B48" s="228"/>
+      <c r="C48" s="228"/>
+      <c r="D48" s="228"/>
+      <c r="E48" s="228"/>
+      <c r="F48" s="228"/>
+      <c r="G48" s="228"/>
+      <c r="H48" s="228"/>
+      <c r="I48" s="228"/>
+      <c r="J48" s="228"/>
+      <c r="K48" s="228"/>
+      <c r="L48" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:J20"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="L1:L46"/>
     <mergeCell ref="A3:G3"/>
@@ -4647,55 +4704,6 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E23:G23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -6431,52 +6439,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId4" name="Элемент управления 1">
+        <control shapeId="2050" r:id="rId4" name="Элемент управления 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId4" name="Элемент управления 1"/>
+        <control shapeId="2050" r:id="rId4" name="Элемент управления 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId6" name="Элемент управления 2">
+        <control shapeId="2049" r:id="rId6" name="Элемент управления 1">
           <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId6" name="Элемент управления 2"/>
+        <control shapeId="2049" r:id="rId6" name="Элемент управления 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9432,7 +9440,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="117">
@@ -10114,7 +10122,7 @@
     <row r="30" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="31" spans="1:11" ht="36.75" thickBot="1">
       <c r="A31" s="157" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" s="158">
         <v>1</v>
@@ -10128,7 +10136,7 @@
     </row>
     <row r="32" spans="1:11" ht="54.75" thickBot="1">
       <c r="A32" s="159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" s="153">
         <v>264</v>
@@ -10157,7 +10165,7 @@
     </row>
     <row r="33" spans="1:11" ht="54.75" thickBot="1">
       <c r="A33" s="159" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="153">
         <v>265</v>
@@ -10186,7 +10194,7 @@
     </row>
     <row r="34" spans="1:11" ht="54.75" thickBot="1">
       <c r="A34" s="159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="153">
         <v>266</v>
@@ -10215,7 +10223,7 @@
     </row>
     <row r="35" spans="1:11" ht="54.75" thickBot="1">
       <c r="A35" s="159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="153">
         <v>267</v>
@@ -10244,7 +10252,7 @@
     </row>
     <row r="36" spans="1:11" ht="54.75" thickBot="1">
       <c r="A36" s="161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B36" s="153">
         <v>268</v>
